--- a/data/Yuanjing_Data_Standard_Final.xlsx
+++ b/data/Yuanjing_Data_Standard_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Demo\Original-Mirror\MultiChannel-Reasoning-System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Demo\Original-Mirror\MultiChannel-Reasoning-System\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1673FF4-1F3E-4694-B8CE-77B31DACA1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5E7FC4-3C11-4527-BB1A-12263C65C2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -218,13 +218,17 @@
   </si>
   <si>
     <t>图是晴天，文说暴雨</t>
+  </si>
+  <si>
+    <t>Meta_Topic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +248,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -281,9 +292,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -588,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -609,11 +623,12 @@
     <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,14 +668,17 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -700,14 +718,14 @@
       <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -747,14 +765,14 @@
       <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -794,14 +812,14 @@
       <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -841,14 +859,14 @@
       <c r="M5" t="s">
         <v>50</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>51</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -888,14 +906,14 @@
       <c r="M6" t="s">
         <v>57</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>32</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -935,10 +953,10 @@
       <c r="M7" t="s">
         <v>63</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>64</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>65</v>
       </c>
     </row>
